--- a/output/TAVOLA_34096201000156.xlsx
+++ b/output/TAVOLA_34096201000156.xlsx
@@ -581,10 +581,10 @@
         <v>44165</v>
       </c>
       <c r="B18">
-        <v>0.07799510000000009</v>
+        <v>0.07785620000000004</v>
       </c>
       <c r="C18">
-        <v>0.09956874880849775</v>
+        <v>0.09942706903721721</v>
       </c>
     </row>
   </sheetData>

--- a/output/TAVOLA_34096201000156.xlsx
+++ b/output/TAVOLA_34096201000156.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>TAVOLA ABSOLUTO ADVISORY FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43677</v>
       </c>
@@ -411,180 +405,132 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43708</v>
       </c>
       <c r="B3">
         <v>0.002818399999999999</v>
       </c>
-      <c r="C3">
-        <v>0.002818399999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43738</v>
       </c>
       <c r="B4">
-        <v>0.01143690000000008</v>
-      </c>
-      <c r="C4">
         <v>0.008594277887202795</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43769</v>
       </c>
       <c r="B5">
-        <v>0.006543500000000035</v>
-      </c>
-      <c r="C5">
         <v>-0.00483806750574356</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43799</v>
       </c>
       <c r="B6">
-        <v>0.04491420000000002</v>
-      </c>
-      <c r="C6">
         <v>0.03812125357721752</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43830</v>
       </c>
       <c r="B7">
-        <v>0.1018637</v>
-      </c>
-      <c r="C7">
         <v>0.05450160405514626</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43861</v>
       </c>
       <c r="B8">
-        <v>0.0908042</v>
-      </c>
-      <c r="C8">
         <v>-0.01003708534912262</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43890</v>
       </c>
       <c r="B9">
-        <v>0.04148909999999995</v>
-      </c>
-      <c r="C9">
         <v>-0.0452098552609167</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43921</v>
       </c>
       <c r="B10">
-        <v>-0.2672054</v>
-      </c>
-      <c r="C10">
         <v>-0.2963972450599819</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43951</v>
       </c>
       <c r="B11">
-        <v>-0.1810798</v>
-      </c>
-      <c r="C11">
         <v>0.1175303420631102</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43982</v>
       </c>
       <c r="B12">
-        <v>-0.09143369999999995</v>
-      </c>
-      <c r="C12">
         <v>0.1094686637354898</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>44012</v>
       </c>
       <c r="B13">
-        <v>0.002021800000000074</v>
-      </c>
-      <c r="C13">
         <v>0.1028604076554458</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>44043</v>
       </c>
       <c r="B14">
-        <v>0.05673050000000002</v>
-      </c>
-      <c r="C14">
         <v>0.05459831313051278</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>44074</v>
       </c>
       <c r="B15">
-        <v>0.03021239999999992</v>
-      </c>
-      <c r="C15">
         <v>-0.0250944777310772</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>44104</v>
       </c>
       <c r="B16">
-        <v>0.0288676000000001</v>
-      </c>
-      <c r="C16">
         <v>-0.001305361884597622</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>44135</v>
       </c>
       <c r="B17">
-        <v>-0.01962010000000003</v>
-      </c>
-      <c r="C17">
         <v>-0.04712724941479363</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>44165</v>
       </c>
       <c r="B18">
-        <v>0.07785620000000004</v>
-      </c>
-      <c r="C18">
-        <v>0.09942706903721721</v>
+        <v>0.08165916090282965</v>
       </c>
     </row>
   </sheetData>
